--- a/parameter_test_freebayes.xlsx
+++ b/parameter_test_freebayes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2280" windowWidth="33480" windowHeight="15740" tabRatio="500"/>
+    <workbookView xWindow="1720" yWindow="1180" windowWidth="33480" windowHeight="15740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>locus</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>Note:</t>
+  </si>
+  <si>
+    <t>616114752</t>
+  </si>
+  <si>
+    <t>Dhn9_SET8</t>
+  </si>
+  <si>
+    <t>chr5H</t>
+  </si>
+  <si>
+    <t>4.90±1.91</t>
+  </si>
+  <si>
+    <t>Dhn_Morrell etal., 2006</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -344,8 +359,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -368,8 +389,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -404,6 +428,9 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -438,6 +465,9 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -767,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -778,7 +808,8 @@
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="10.83203125" style="1"/>
     <col min="16" max="16" width="12.83203125" style="1" customWidth="1"/>
@@ -1400,31 +1431,135 @@
         <v>4.2839999999999996E-3</v>
       </c>
     </row>
+    <row r="10" spans="1:24" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6">
+        <v>25</v>
+      </c>
+      <c r="L10" s="4">
+        <v>11</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="4">
+        <v>3.91</v>
+      </c>
+      <c r="T10" s="4">
+        <v>-0.72499999999999998</v>
+      </c>
+    </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5">
+        <v>616115757</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11-C11</f>
+        <v>1005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>145</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>43</v>
+      </c>
+      <c r="L11" s="1">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.29268300000000003</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8.0121000000000002</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3.4154100000000001</v>
+      </c>
+      <c r="R11" s="5">
+        <f>P11/E11</f>
+        <v>7.9722388059701495E-3</v>
+      </c>
+      <c r="S11" s="5">
+        <f>Q11/E11</f>
+        <v>3.3984179104477614E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1.7949600000000001</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-0.33574999999999999</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1.08632</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1.1920900000000001E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="21">
-      <c r="A13" s="7" t="s">
+    <row r="18" spans="1:4" ht="21">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1" t="s">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="18">
-      <c r="A15" s="7" t="s">
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="28" spans="1:4" ht="21">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
